--- a/sampleFIles/holidaysBulk.xlsx
+++ b/sampleFIles/holidaysBulk.xlsx
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
